--- a/Demo_blaze_Application/Test_Data/Test_Data_for_DDT.xlsx
+++ b/Demo_blaze_Application/Test_Data/Test_Data_for_DDT.xlsx
@@ -5,16 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sivakrishna\PycharmProjects\Demo_blaze_Application\Test_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sivakrishna\PycharmProjects\Python_Revision\demo_blaze_meter_store_application_testing\Demo_blaze_Application\Test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3D7E27-B8D2-4FD1-BC29-5EE0DC3F0B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FEC1C85-A04C-4822-B455-A3109086A33B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Contact_Data" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="51">
   <si>
     <t>Username</t>
   </si>
@@ -61,37 +60,6 @@
     <t>$#@%^&amp;&amp;*^%$</t>
   </si>
   <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Message</t>
-  </si>
-  <si>
-    <t>Expected_Result</t>
-  </si>
-  <si>
-    <t>adminadmin123@gmai.com</t>
-  </si>
-  <si>
-    <t>adminadmin</t>
-  </si>
-  <si>
-    <t>This is a text message 
-in contact page</t>
-  </si>
-  <si>
-    <t>adminadminxxxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>adminxxxxxx</t>
-  </si>
-  <si>
-    <t>^&amp;$%^#^%$&amp;%*^*&amp;*^%^&amp;$^%$</t>
-  </si>
-  <si>
     <t xml:space="preserve">      adminadmin123     </t>
   </si>
   <si>
@@ -99,9 +67,6 @@
   </si>
   <si>
     <t xml:space="preserve">      adminadmin123@gmai.com         </t>
-  </si>
-  <si>
-    <t>%^&amp;$%#^%$&amp;^*&amp;^@$$@234</t>
   </si>
   <si>
     <t>test_case_001</t>
@@ -284,18 +249,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -581,7 +540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -595,7 +554,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -609,7 +568,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
@@ -623,7 +582,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
@@ -637,7 +596,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
@@ -651,12 +610,12 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>26876253</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -665,13 +624,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>21</v>
+      <c r="C6" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>7</v>
@@ -679,7 +638,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>3</v>
@@ -691,7 +650,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>6</v>
@@ -705,7 +664,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>6</v>
@@ -719,7 +678,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>6</v>
@@ -733,12 +692,12 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>26876253</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -747,13 +706,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>22</v>
+      <c r="C12" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>7</v>
@@ -761,7 +720,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>6</v>
@@ -773,10 +732,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>4</v>
@@ -787,10 +746,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>8</v>
@@ -801,10 +760,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>10</v>
@@ -815,12 +774,12 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="5">
+        <v>13</v>
+      </c>
+      <c r="C17" s="4">
         <v>26876253</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -829,13 +788,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>21</v>
+        <v>13</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>7</v>
@@ -843,10 +802,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
@@ -855,7 +814,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>9</v>
@@ -869,7 +828,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>9</v>
@@ -883,7 +842,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>9</v>
@@ -897,12 +856,12 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="4">
         <v>26876253</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -911,13 +870,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>22</v>
+      <c r="C24" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>7</v>
@@ -925,7 +884,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>9</v>
@@ -937,9 +896,9 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="5">
+        <v>39</v>
+      </c>
+      <c r="B26" s="4">
         <v>7657465</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -951,9 +910,9 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" s="5">
+        <v>40</v>
+      </c>
+      <c r="B27" s="4">
         <v>7657465</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -965,9 +924,9 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" s="5">
+        <v>41</v>
+      </c>
+      <c r="B28" s="4">
         <v>7657465</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -979,12 +938,12 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" s="5">
+        <v>42</v>
+      </c>
+      <c r="B29" s="4">
         <v>7657465</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="4">
         <v>26876253</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -993,13 +952,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B30" s="5">
+        <v>43</v>
+      </c>
+      <c r="B30" s="4">
         <v>7657465</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>22</v>
+      <c r="C30" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>7</v>
@@ -1007,9 +966,9 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B31" s="5">
+        <v>44</v>
+      </c>
+      <c r="B31" s="4">
         <v>7657465</v>
       </c>
       <c r="C31" s="1"/>
@@ -1019,7 +978,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
@@ -1031,7 +990,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
@@ -1043,7 +1002,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="2" t="s">
@@ -1055,10 +1014,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B35" s="1"/>
-      <c r="C35" s="5">
+      <c r="C35" s="4">
         <v>26876253</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -1067,11 +1026,11 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B36" s="1"/>
-      <c r="C36" s="5" t="s">
-        <v>22</v>
+      <c r="C36" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>7</v>
@@ -1079,7 +1038,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1117,616 +1076,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73C33523-74D2-4A0D-BC42-0368D11490E2}">
-  <dimension ref="A1:E37"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.88671875" customWidth="1"/>
-    <col min="3" max="3" width="19.109375" customWidth="1"/>
-    <col min="4" max="4" width="27.88671875" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{16350883-BB95-4E0D-A4E8-38A7D3A71A69}"/>
-    <hyperlink ref="B12" r:id="rId2" xr:uid="{0F32EE80-89D5-410D-BB11-AC4B8B91BDCC}"/>
-    <hyperlink ref="B13" r:id="rId3" xr:uid="{536C737B-F5B8-4F01-8F58-E9BF265180BF}"/>
-    <hyperlink ref="B3" r:id="rId4" xr:uid="{248659E7-0E33-4948-8AD3-BA7DF4FFE28C}"/>
-    <hyperlink ref="B5" r:id="rId5" xr:uid="{4E30D965-FC9D-49FD-985E-87F759463A84}"/>
-    <hyperlink ref="B6" r:id="rId6" xr:uid="{2E0B933C-DF6F-4580-8726-0FD82440B0E8}"/>
-    <hyperlink ref="B4" r:id="rId7" xr:uid="{4D6C5A87-13E7-4DEA-AEDF-5447D72A8712}"/>
-    <hyperlink ref="B7" r:id="rId8" xr:uid="{6BBD06CB-BBD5-4EDF-AA73-B1B2E2156807}"/>
-    <hyperlink ref="B8" r:id="rId9" xr:uid="{EC892370-4D83-4A07-9E98-AB86B2DFEC39}"/>
-    <hyperlink ref="B9" r:id="rId10" xr:uid="{6F1F2D26-B726-41FF-A7D9-9529ED5851D8}"/>
-    <hyperlink ref="B10" r:id="rId11" xr:uid="{00E3C8AF-B83A-403A-82D7-E953CE79DFA8}"/>
-    <hyperlink ref="B11" r:id="rId12" xr:uid="{B0D9D0FF-BA39-4833-B429-4D50D2A5A6EF}"/>
-    <hyperlink ref="B14" r:id="rId13" xr:uid="{B047D60A-6324-4E81-AB80-FE5E07B6673D}"/>
-    <hyperlink ref="B15" r:id="rId14" xr:uid="{70210FFE-6491-4644-AD09-C2BBC8EB4E3B}"/>
-    <hyperlink ref="B16" r:id="rId15" xr:uid="{BB8BE454-FFFA-4168-BFF4-FDB1D0228CFB}"/>
-    <hyperlink ref="B17" r:id="rId16" xr:uid="{6B17B73B-4230-4067-9215-FFFFC9E75EDC}"/>
-    <hyperlink ref="B18" r:id="rId17" xr:uid="{7E9FFBE7-BF38-4AB6-9B8F-AB52A7883625}"/>
-    <hyperlink ref="B19" r:id="rId18" xr:uid="{94B4BCDB-5472-4AF9-90E0-C0896EA23011}"/>
-    <hyperlink ref="B20" r:id="rId19" xr:uid="{C0BFA988-400A-4E54-8E8A-8996F4E615DE}"/>
-    <hyperlink ref="B21" r:id="rId20" xr:uid="{14EF84FE-3C2E-4BF6-A7D8-215400542FB1}"/>
-    <hyperlink ref="B22" r:id="rId21" xr:uid="{4A79B97F-D24B-4A33-97A7-B12E7BFD25B1}"/>
-    <hyperlink ref="B23" r:id="rId22" xr:uid="{6A0AED10-13EF-4685-807B-EB6BC666997D}"/>
-    <hyperlink ref="B24" r:id="rId23" xr:uid="{D950D2B8-BF3F-424A-9918-D1EF68177802}"/>
-    <hyperlink ref="B25" r:id="rId24" xr:uid="{DC9234D7-038C-44C0-9ED5-7BB11085FB18}"/>
-    <hyperlink ref="B26" r:id="rId25" xr:uid="{E8237D74-E7B3-4757-BED1-43F588BC7969}"/>
-    <hyperlink ref="B27" r:id="rId26" xr:uid="{7A9FBBD1-BDEF-4E87-85D3-26F9A126FB24}"/>
-    <hyperlink ref="B28" r:id="rId27" xr:uid="{A7ACF117-5390-4FB2-967F-F83DFD6FFE9F}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Demo_blaze_Application/Test_Data/Test_Data_for_DDT.xlsx
+++ b/Demo_blaze_Application/Test_Data/Test_Data_for_DDT.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sivakrishna\PycharmProjects\Python_Revision\demo_blaze_meter_store_application_testing\Demo_blaze_Application\Test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FEC1C85-A04C-4822-B455-A3109086A33B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A855517-EBFE-4BD8-9220-9A7D53F6ACA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Data" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Login_Data!$A$1:$D$37</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -541,7 +544,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
